--- a/trade data analysis.xlsx
+++ b/trade data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54415476-CC5B-4812-B0A3-CEA78A1937D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0061C8D8-2719-41F5-AFED-B5BF03539E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{80FF113B-C94E-144A-A79C-307519E17BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{80FF113B-C94E-144A-A79C-307519E17BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="cleantradedata" sheetId="1" r:id="rId1"/>
@@ -753,9 +753,9 @@
     <numFmt numFmtId="165" formatCode="0.00%;[Red]\(0.00%\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0,,,;[Red]#\(##0.0,,,\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0,,,"/>
-    <numFmt numFmtId="169" formatCode="0.0%;[Red]\(0.0%\)"/>
+    <numFmt numFmtId="168" formatCode="0.0%;[Red]\(0.0%\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -907,6 +907,13 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1394,7 +1401,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1410,19 +1417,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1451,10 +1446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1466,10 +1461,10 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1481,14 +1476,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1535,7 +1543,12 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkUp"/>
@@ -1549,16 +1562,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp"/>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8724,7 +8727,7 @@
       <sheetName val="Analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="S3" t="str">
@@ -60715,8 +60718,8 @@
   </sheetPr>
   <dimension ref="B4:W57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -60728,24 +60731,27 @@
     <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.25" customWidth="1"/>
+    <col min="21" max="21" width="18.375" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="18" t="s">
         <v>230</v>
       </c>
     </row>
@@ -60759,33 +60765,33 @@
       <c r="M5" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="19">
         <v>2016</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="20">
         <v>14927629593527</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="21">
         <v>15074757110219</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="U5" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="23" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="39"/>
       <c r="J6" s="7">
         <v>2014</v>
       </c>
@@ -60799,39 +60805,39 @@
         <f>K6-L6</f>
         <v>18897047983</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="19">
         <v>2017</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="20">
         <v>16439525754384</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="21">
         <v>16696155988725</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="24">
         <f t="shared" ref="U6:V12" si="0">(S6-S5)/S5</f>
         <v>0.10128173072519141</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="25">
         <f t="shared" si="0"/>
         <v>0.10755721413294764</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="40">
         <v>2014</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>0.1368</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>0.1328</v>
       </c>
       <c r="J7" s="7">
@@ -60847,37 +60853,37 @@
         <f>K7-L7</f>
         <v>-536398796174</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="19">
         <v>2018</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="20">
         <v>18099337404914</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="21">
         <v>18401582691218</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="24">
         <f t="shared" si="0"/>
         <v>0.10096469176353039</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="25">
         <f t="shared" si="0"/>
         <v>0.10214487116942866</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>0.11119999999999999</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>9.1800000000000007E-2</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -60894,38 +60900,38 @@
       <c r="M8" t="s">
         <v>231</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="26">
         <f>R7+1</f>
         <v>2019</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="27">
         <v>17587158487696</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="28">
         <v>17897653499252</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="29">
         <f t="shared" si="0"/>
         <v>-2.8298213672669728E-2</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="30">
         <f t="shared" si="0"/>
         <v>-2.7385100533037082E-2</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -60940,38 +60946,38 @@
       <c r="M9" t="s">
         <v>231</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="26">
         <f t="shared" ref="R9:R12" si="2">R8+1</f>
         <v>2020</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="27">
         <v>16280547003980</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="28">
         <v>16495241212150</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="29">
         <f t="shared" si="0"/>
         <v>-7.4293495713369906E-2</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="30">
         <f t="shared" si="0"/>
         <v>-7.8357326962476465E-2</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -60988,421 +60994,420 @@
       <c r="M10" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="19">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="20">
         <v>20560130271156</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="21">
         <v>20864498009756</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="24">
         <f t="shared" si="0"/>
         <v>0.26286483286647544</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="25">
         <f t="shared" si="0"/>
         <v>0.2648798366396552</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="12">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="19">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="20">
         <v>22473750278922</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="21">
         <v>23506968559896</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="24">
         <f t="shared" si="0"/>
         <v>9.3074313369046868E-2</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="25">
         <f t="shared" si="0"/>
         <v>0.12664913140514625</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>2.98E-2</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>0.03</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="31">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="32">
         <v>21598814981835</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="33">
         <v>22117836367884</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="34">
         <f t="shared" si="0"/>
         <v>-3.8931432726098981E-2</v>
       </c>
-      <c r="V12" s="39">
+      <c r="V12" s="35">
         <f t="shared" si="0"/>
         <v>-5.9094484619421545E-2</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>2.69E-2</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>2.63E-2</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <v>2.69E-2</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>0.50280000000000002</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="14">
         <v>0.46510000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="40">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="12">
         <v>0.158</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="12">
         <v>0.17269999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="12">
         <v>0.1217</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="12">
         <v>9.9599999999999994E-2</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="12">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="12">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="12">
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="12">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>1.84E-2</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="12">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="12">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="12">
         <v>1.26E-2</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="12">
         <v>1.11E-2</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="12">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="12">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="12">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="12">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="12">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="14">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="14">
         <v>0.40679999999999999</v>
       </c>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40" t="s">
+      <c r="R30" s="36"/>
+      <c r="S30" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="T30" s="40" t="s">
+      <c r="T30" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40" t="s">
+      <c r="V30" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="W30" s="40" t="s">
+      <c r="W30" s="36" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="S31" s="41" t="s">
+      <c r="S31" s="37" t="s">
         <v>40</v>
       </c>
       <c r="T31" s="9">
         <v>1234250597522</v>
       </c>
-      <c r="V31" s="41" t="s">
+      <c r="V31" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="W31" s="9">
+        <v>945950000000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="F32" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="41"/>
+      <c r="S32" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="T32" s="9">
+        <v>444060000000</v>
+      </c>
+      <c r="V32" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="W31" s="9">
-        <v>625899972917</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="F32" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="S32" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="T32" s="9">
-        <v>132470000000</v>
-      </c>
-      <c r="V32" s="41" t="s">
-        <v>63</v>
-      </c>
       <c r="W32" s="9">
-        <v>162000000000</v>
+        <v>625900000000</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="38">
         <v>2014</v>
       </c>
       <c r="C33" t="s">
@@ -61418,20 +61423,20 @@
         <v>0.1328</v>
       </c>
       <c r="S33" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="T33" s="9">
-        <v>122885266549</v>
-      </c>
-      <c r="V33" t="s">
-        <v>84</v>
+        <v>222092000000</v>
+      </c>
+      <c r="V33" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="W33" s="9">
-        <v>127851441090</v>
+        <v>238376000000</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
+      <c r="B34" s="38"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -61445,20 +61450,20 @@
         <v>9.1800000000000007E-2</v>
       </c>
       <c r="S34" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="T34" s="9">
-        <v>119179000000</v>
+        <v>165856000000</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="W34" s="9">
-        <v>102172923616</v>
+        <v>225890000000</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+      <c r="B35" s="38"/>
       <c r="C35" t="s">
         <v>63</v>
       </c>
@@ -61472,20 +61477,20 @@
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="T35" s="9">
-        <v>116115518182</v>
+        <v>135550000000</v>
       </c>
       <c r="V35" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="W35" s="9">
-        <v>77476023167</v>
+        <v>162809000000</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+      <c r="B36" s="38"/>
       <c r="C36" t="s">
         <v>87</v>
       </c>
@@ -61498,21 +61503,21 @@
       <c r="G36" s="2">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="S36" t="s">
-        <v>14</v>
+      <c r="S36" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="T36" s="9">
-        <v>100410316134</v>
-      </c>
-      <c r="V36" t="s">
-        <v>47</v>
+        <v>132470000000</v>
+      </c>
+      <c r="V36" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="W36" s="9">
-        <v>76171500483</v>
+        <v>162000000000</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+      <c r="B37" s="38"/>
       <c r="C37" t="s">
         <v>172</v>
       </c>
@@ -61526,20 +61531,20 @@
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="S37" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="T37" s="9">
-        <v>90293805668</v>
+        <v>123579000000</v>
       </c>
       <c r="V37" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="W37" s="9">
-        <v>68937768657</v>
+        <v>127851000000</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+      <c r="B38" s="38"/>
       <c r="C38" t="s">
         <v>57</v>
       </c>
@@ -61553,20 +61558,20 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="S38" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="T38" s="9">
-        <v>85012980770</v>
+        <v>122885000000</v>
       </c>
       <c r="V38" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="W38" s="9">
-        <v>61977900000</v>
+        <v>114862000000</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+      <c r="B39" s="38"/>
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -61580,20 +61585,20 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="T39" s="9">
-        <v>79302834619</v>
+        <v>119179000000</v>
       </c>
       <c r="V39" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="W39" s="9">
-        <v>57020213295</v>
+        <v>112942000000</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
+      <c r="B40" s="38"/>
       <c r="C40" t="s">
         <v>118</v>
       </c>
@@ -61606,21 +61611,21 @@
       <c r="G40" s="2">
         <v>0.03</v>
       </c>
-      <c r="S40" t="s">
-        <v>35</v>
+      <c r="S40" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="T40" s="9">
-        <v>74444823656</v>
+        <v>116890000000</v>
       </c>
       <c r="V40" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="W40" s="9">
-        <v>47452359084</v>
+        <v>106170000000</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
+      <c r="B41" s="38"/>
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -61635,7 +61640,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+      <c r="B42" s="38"/>
       <c r="C42" t="s">
         <v>35</v>
       </c>
@@ -61650,7 +61655,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="3" t="s">
         <v>215</v>
       </c>
@@ -61668,7 +61673,7 @@
     </row>
     <row r="44" spans="2:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="38">
         <v>2024</v>
       </c>
       <c r="C45" t="s">
@@ -61676,7 +61681,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+      <c r="B46" s="38"/>
       <c r="C46" t="s">
         <v>174</v>
       </c>
@@ -61691,7 +61696,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+      <c r="B47" s="38"/>
       <c r="C47" t="s">
         <v>40</v>
       </c>
@@ -61706,7 +61711,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
+      <c r="B48" s="38"/>
       <c r="C48" t="s">
         <v>63</v>
       </c>
@@ -61721,7 +61726,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
+      <c r="B49" s="38"/>
       <c r="C49" t="s">
         <v>172</v>
       </c>
@@ -61736,7 +61741,7 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
+      <c r="B50" s="38"/>
       <c r="C50" t="s">
         <v>57</v>
       </c>
@@ -61751,7 +61756,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
+      <c r="B51" s="38"/>
       <c r="C51" t="s">
         <v>87</v>
       </c>
@@ -61766,7 +61771,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
+      <c r="B52" s="38"/>
       <c r="C52" t="s">
         <v>148</v>
       </c>
@@ -61781,7 +61786,7 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
+      <c r="B53" s="38"/>
       <c r="C53" t="s">
         <v>90</v>
       </c>
@@ -61796,7 +61801,7 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
+      <c r="B54" s="38"/>
       <c r="C54" t="s">
         <v>106</v>
       </c>
@@ -61811,7 +61816,7 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+      <c r="B55" s="38"/>
       <c r="C55" t="s">
         <v>118</v>
       </c>
@@ -61853,17 +61858,17 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
   </mergeCells>
-  <conditionalFormatting sqref="U5:V5">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text=" ">
-      <formula>NOT(ISERROR(SEARCH(" ",U5)))</formula>
+  <conditionalFormatting sqref="J5:M10">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"  "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M10">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"  "</formula>
+  <conditionalFormatting sqref="U5:V5">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text=" ">
+      <formula>NOT(ISERROR(SEARCH(" ",U5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
